--- a/seasonal_patterns/med.xlsx
+++ b/seasonal_patterns/med.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,21 +490,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>189.81</v>
+        <v>131.99</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>229.9750000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -513,30 +513,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2682.72</v>
+        <v>189.81</v>
       </c>
       <c r="F3" t="n">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>128.7058823529412</v>
+        <v>1800</v>
       </c>
       <c r="H3" t="n">
-        <v>101.7857142857143</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -545,30 +545,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79.92</v>
+        <v>3682.19</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>147.652067471954</v>
       </c>
       <c r="H4" t="n">
-        <v>300</v>
+        <v>124.7619047619048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -577,62 +577,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2498.7</v>
+        <v>79.92</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>130.2100608070757</v>
+        <v>300</v>
       </c>
       <c r="H5" t="n">
-        <v>113.7931034482758</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>49.95</v>
+        <v>2498.7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="G6" t="n">
-        <v>400</v>
+        <v>130.2100608070757</v>
       </c>
       <c r="H6" t="n">
-        <v>300</v>
+        <v>129.5081967213115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -650,21 +650,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>39.96</v>
+        <v>49.95</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>1214.473684210527</v>
+        <v>400</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -682,21 +682,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>388.96</v>
+        <v>39.96</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>194.6889915902719</v>
+        <v>1214.473684210527</v>
       </c>
       <c r="H8" t="n">
-        <v>266.6666666666666</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -705,30 +705,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8965.91</v>
+        <v>388.96</v>
       </c>
       <c r="F9" t="n">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>234.2096827100853</v>
+        <v>194.6889915902719</v>
       </c>
       <c r="H9" t="n">
-        <v>155.7522123893806</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -746,21 +746,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>61245.7</v>
+        <v>2037.96</v>
       </c>
       <c r="F10" t="n">
-        <v>1648</v>
+        <v>204</v>
       </c>
       <c r="G10" t="n">
-        <v>242.6118195671096</v>
+        <v>973.6842105263157</v>
       </c>
       <c r="H10" t="n">
-        <v>183.6488812392427</v>
+        <v>973.6842105263157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -774,25 +774,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5668.5</v>
+        <v>8965.91</v>
       </c>
       <c r="F11" t="n">
-        <v>158</v>
+        <v>539</v>
       </c>
       <c r="G11" t="n">
-        <v>157.9005796336569</v>
+        <v>234.2096827100853</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8947368421053</v>
+        <v>166.8316831683169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -801,30 +801,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2652.88</v>
+        <v>61245.7</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>3185</v>
       </c>
       <c r="G12" t="n">
-        <v>397.2782484816675</v>
+        <v>242.6118195671096</v>
       </c>
       <c r="H12" t="n">
-        <v>250</v>
+        <v>205.9558117195005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -833,30 +833,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24667.61</v>
+        <v>5668.5</v>
       </c>
       <c r="F13" t="n">
-        <v>588</v>
+        <v>339</v>
       </c>
       <c r="G13" t="n">
-        <v>210.8486220901586</v>
+        <v>157.9005796336569</v>
       </c>
       <c r="H13" t="n">
-        <v>155.6521739130435</v>
+        <v>111.875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -865,30 +865,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>47.96</v>
+        <v>2652.88</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>397.2782484816675</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>351.9999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -897,30 +897,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1356</v>
+        <v>24667.61</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>1291</v>
       </c>
       <c r="G15" t="n">
-        <v>236.8944099378882</v>
+        <v>210.8486220901586</v>
       </c>
       <c r="H15" t="n">
-        <v>357.1428571428571</v>
+        <v>180.6521739130435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12735</v>
+        <v>47.96</v>
       </c>
       <c r="F16" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>269.4088298427801</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6274509803921</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -966,25 +966,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>930.95</v>
+        <v>1356</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G17" t="n">
-        <v>99.79611546303254</v>
+        <v>236.8944099378882</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>261.1111111111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3272</v>
+        <v>12735</v>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>490</v>
       </c>
       <c r="G18" t="n">
-        <v>118.5704742818971</v>
+        <v>269.4088298427801</v>
       </c>
       <c r="H18" t="n">
-        <v>113.3333333333333</v>
+        <v>157.8947368421053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>84.05</v>
+        <v>3272</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>-17.91992187500001</v>
+        <v>118.5704742818971</v>
       </c>
       <c r="H19" t="n">
-        <v>250</v>
+        <v>117.3913043478261</v>
       </c>
     </row>
     <row r="20">
@@ -1069,13 +1069,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1101,13 +1101,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>150</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -1133,13 +1133,13 @@
         <v>185.76</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>382.4935064935065</v>
       </c>
       <c r="H22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23">
@@ -1165,18 +1165,18 @@
         <v>32016.61</v>
       </c>
       <c r="F23" t="n">
-        <v>669</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="n">
         <v>257.0926989006136</v>
       </c>
       <c r="H23" t="n">
-        <v>131.4878892733564</v>
+        <v>149.721706864564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1190,25 +1190,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>45373.76</v>
+        <v>180212.25</v>
       </c>
       <c r="F24" t="n">
-        <v>878</v>
+        <v>6488</v>
       </c>
       <c r="G24" t="n">
-        <v>633.6939244440348</v>
+        <v>194.2447388143168</v>
       </c>
       <c r="H24" t="n">
-        <v>343.4343434343434</v>
+        <v>103.7048665620094</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1222,25 +1222,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21147.39</v>
+        <v>33437.66</v>
       </c>
       <c r="F25" t="n">
-        <v>338</v>
+        <v>1164</v>
       </c>
       <c r="G25" t="n">
-        <v>273.0685366499073</v>
+        <v>233.6435850436591</v>
       </c>
       <c r="H25" t="n">
-        <v>113.9240506329114</v>
+        <v>113.5779816513761</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1249,30 +1249,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>203.8</v>
+        <v>45373.76</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>1782</v>
       </c>
       <c r="G26" t="n">
-        <v>240.0066733400067</v>
+        <v>633.6939244440348</v>
       </c>
       <c r="H26" t="n">
-        <v>233.3333333333333</v>
+        <v>384.2391304347826</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1290,21 +1290,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2213.47</v>
+        <v>21147.39</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>766</v>
       </c>
       <c r="G27" t="n">
-        <v>415.5277622507919</v>
+        <v>273.0685366499073</v>
       </c>
       <c r="H27" t="n">
-        <v>135.7142857142857</v>
+        <v>125.9587020648968</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1313,30 +1313,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.83</v>
+        <v>203.8</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>824.0300375469337</v>
+        <v>240.0066733400067</v>
       </c>
       <c r="H28" t="n">
-        <v>700</v>
+        <v>233.3333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1345,30 +1345,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4174.2</v>
+        <v>2213.47</v>
       </c>
       <c r="F29" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" t="n">
-        <v>1305.454545454545</v>
+        <v>415.5277622507919</v>
       </c>
       <c r="H29" t="n">
-        <v>840</v>
+        <v>228.5714285714286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78870.77</v>
+        <v>73.83</v>
       </c>
       <c r="F30" t="n">
-        <v>1706</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>219.734137194483</v>
+        <v>824.0300375469337</v>
       </c>
       <c r="H30" t="n">
-        <v>190.1360544217687</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1414,25 +1414,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26678.2</v>
+        <v>4174.2</v>
       </c>
       <c r="F31" t="n">
-        <v>530</v>
+        <v>205</v>
       </c>
       <c r="G31" t="n">
-        <v>672.5757641573636</v>
+        <v>1305.454545454545</v>
       </c>
       <c r="H31" t="n">
-        <v>516.2790697674419</v>
+        <v>1181.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14614.88</v>
+        <v>78870.77</v>
       </c>
       <c r="F32" t="n">
-        <v>319</v>
+        <v>4046</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9590766623811</v>
+        <v>219.734137194483</v>
       </c>
       <c r="H32" t="n">
-        <v>266.6666666666666</v>
+        <v>213.4004647560031</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1478,25 +1478,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1193.9</v>
+        <v>26678.2</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>1399</v>
       </c>
       <c r="G33" t="n">
-        <v>421.353711790393</v>
+        <v>672.5757641573636</v>
       </c>
       <c r="H33" t="n">
-        <v>300</v>
+        <v>632.4607329842931</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1505,94 +1505,94 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2209.17</v>
+        <v>14614.88</v>
       </c>
       <c r="F34" t="n">
-        <v>29</v>
+        <v>789</v>
       </c>
       <c r="G34" t="n">
-        <v>2528.399762046401</v>
+        <v>332.9590766623811</v>
       </c>
       <c r="H34" t="n">
-        <v>314.2857142857143</v>
+        <v>333.5164835164835</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1118.43</v>
+        <v>1193.9</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>187.5363138545389</v>
+        <v>421.353711790393</v>
       </c>
       <c r="H35" t="n">
-        <v>120</v>
+        <v>390.9090909090909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8478.17</v>
+        <v>2209.17</v>
       </c>
       <c r="F36" t="n">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="G36" t="n">
-        <v>103.1088591825979</v>
+        <v>2528.399762046401</v>
       </c>
       <c r="H36" t="n">
-        <v>120.2127659574468</v>
+        <v>1214.285714285714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28899.56</v>
+        <v>1118.43</v>
       </c>
       <c r="F37" t="n">
-        <v>681</v>
+        <v>46</v>
       </c>
       <c r="G37" t="n">
-        <v>97.74065883537872</v>
+        <v>187.5363138545389</v>
       </c>
       <c r="H37" t="n">
-        <v>113.4796238244514</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1633,22 +1633,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.5</v>
+        <v>23.64</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>75.17517517517518</v>
+        <v>195.8698372966208</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -1656,48 +1656,48 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>20834.84</v>
+        <v>8478.17</v>
       </c>
       <c r="F39" t="n">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G39" t="n">
-        <v>117.0237056079731</v>
+        <v>103.1088591825979</v>
       </c>
       <c r="H39" t="n">
-        <v>110.0529100529101</v>
+        <v>115.1219512195122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1706,30 +1706,30 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.96</v>
+        <v>49.95</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>300</v>
+        <v>70.82763337893299</v>
       </c>
       <c r="H40" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1738,21 +1738,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.93000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>48.00800800800802</v>
+        <v>75.17517517517518</v>
       </c>
       <c r="H41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1761,39 +1761,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1083.77</v>
+        <v>20834.84</v>
       </c>
       <c r="F42" t="n">
-        <v>26</v>
+        <v>821</v>
       </c>
       <c r="G42" t="n">
-        <v>204.0454481694487</v>
+        <v>117.0237056079731</v>
       </c>
       <c r="H42" t="n">
-        <v>225</v>
+        <v>111.0539845758355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1802,53 +1802,53 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>74.03</v>
+        <v>39.96</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>2.905198776758411</v>
+        <v>300</v>
       </c>
       <c r="H43" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>59.57</v>
+        <v>1083.77</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G44" t="n">
-        <v>98.76543209876544</v>
+        <v>204.0454481694487</v>
       </c>
       <c r="H44" t="n">
-        <v>250</v>
+        <v>233.3333333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1857,30 +1857,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>925.36</v>
+        <v>59.57</v>
       </c>
       <c r="F45" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="G45" t="n">
-        <v>141.1550088606275</v>
+        <v>98.76543209876544</v>
       </c>
       <c r="H45" t="n">
-        <v>106.25</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1889,30 +1889,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>57.94</v>
+        <v>925.36</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="G46" t="n">
-        <v>44.994994994995</v>
+        <v>141.1550088606275</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>123.5294117647059</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1921,30 +1921,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9329.960000000001</v>
+        <v>15.98</v>
       </c>
       <c r="F47" t="n">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>161.8568621947797</v>
+        <v>299.5</v>
       </c>
       <c r="H47" t="n">
-        <v>106.1728395061728</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1953,94 +1953,94 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>150.1</v>
+        <v>9329.960000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>465</v>
       </c>
       <c r="G48" t="n">
-        <v>115.351506456241</v>
+        <v>161.8568621947797</v>
       </c>
       <c r="H48" t="n">
-        <v>200</v>
+        <v>154.0983606557377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.96</v>
+        <v>150.1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>209.9099099099099</v>
+        <v>115.351506456241</v>
       </c>
       <c r="H49" t="n">
-        <v>200</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1833.25</v>
+        <v>259</v>
       </c>
       <c r="F50" t="n">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="G50" t="n">
-        <v>98.11208610702862</v>
+        <v>1380</v>
       </c>
       <c r="H50" t="n">
-        <v>109.0909090909091</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2049,30 +2049,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>554</v>
+        <v>30.96</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>1267.901234567901</v>
+        <v>209.9099099099099</v>
       </c>
       <c r="H51" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2081,30 +2081,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>573.84</v>
+        <v>276.78</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>76.34910878918258</v>
+        <v>273.8754558962583</v>
       </c>
       <c r="H52" t="n">
-        <v>157.1428571428572</v>
+        <v>183.3333333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2122,21 +2122,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>62402.13</v>
+        <v>1833.25</v>
       </c>
       <c r="F53" t="n">
-        <v>1327</v>
+        <v>153</v>
       </c>
       <c r="G53" t="n">
-        <v>87.77994506420409</v>
+        <v>98.11208610702862</v>
       </c>
       <c r="H53" t="n">
-        <v>101.6717325227964</v>
+        <v>101.3157894736842</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2145,30 +2145,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4283.9</v>
+        <v>554</v>
       </c>
       <c r="F54" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="G54" t="n">
-        <v>241.8914604948124</v>
+        <v>1267.901234567901</v>
       </c>
       <c r="H54" t="n">
-        <v>180</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2177,30 +2177,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1740.04</v>
+        <v>573.84</v>
       </c>
       <c r="F55" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G55" t="n">
-        <v>207.5634114007954</v>
+        <v>76.34910878918258</v>
       </c>
       <c r="H55" t="n">
-        <v>111.7647058823529</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2209,30 +2209,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3077.81</v>
+        <v>62402.13</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>3522</v>
       </c>
       <c r="G56" t="n">
-        <v>318.3739771089906</v>
+        <v>87.77994506420409</v>
       </c>
       <c r="H56" t="n">
-        <v>257.1428571428572</v>
+        <v>108.1560283687943</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2250,21 +2250,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>251.62</v>
+        <v>4283.9</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="G57" t="n">
-        <v>250.592169430124</v>
+        <v>241.8914604948124</v>
       </c>
       <c r="H57" t="n">
-        <v>133.3333333333333</v>
+        <v>216.1290322580645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2273,30 +2273,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>608.5</v>
+        <v>1740.04</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>305.3964023984011</v>
+        <v>207.5634114007954</v>
       </c>
       <c r="H58" t="n">
-        <v>233.3333333333333</v>
+        <v>142.4242424242424</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2305,30 +2305,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5100.38</v>
+        <v>3077.81</v>
       </c>
       <c r="F59" t="n">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="G59" t="n">
-        <v>266.1514605483248</v>
+        <v>318.3739771089906</v>
       </c>
       <c r="H59" t="n">
-        <v>169.5652173913043</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2337,94 +2337,94 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>98.79000000000001</v>
+        <v>251.62</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G60" t="n">
-        <v>-61.85714285714285</v>
+        <v>250.592169430124</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>115.91</v>
+        <v>608.5</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G61" t="n">
-        <v>123.1183830606352</v>
+        <v>305.3964023984011</v>
       </c>
       <c r="H61" t="n">
-        <v>120</v>
+        <v>285.7142857142857</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>362</v>
+        <v>65</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>432.5</v>
+        <v>5100.38</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="G62" t="n">
-        <v>3507.172643869892</v>
+        <v>266.1514605483248</v>
       </c>
       <c r="H62" t="n">
-        <v>400</v>
+        <v>208.3333333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2433,30 +2433,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.95</v>
+        <v>115.91</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>400</v>
+        <v>123.1183830606352</v>
       </c>
       <c r="H63" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2465,30 +2465,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>69.92</v>
+        <v>432.5</v>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G64" t="n">
-        <v>125.7668711656442</v>
+        <v>3507.172643869892</v>
       </c>
       <c r="H64" t="n">
-        <v>133.3333333333333</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2506,21 +2506,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1978.1</v>
+        <v>39.95</v>
       </c>
       <c r="F65" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>247.8834350433513</v>
+        <v>400</v>
       </c>
       <c r="H65" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2529,30 +2529,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3974.55</v>
+        <v>69.92</v>
       </c>
       <c r="F66" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>29.13565164841236</v>
+        <v>125.7668711656442</v>
       </c>
       <c r="H66" t="n">
-        <v>112</v>
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2566,25 +2566,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>585.02</v>
+        <v>1978.1</v>
       </c>
       <c r="F67" t="n">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="G67" t="n">
-        <v>132.5013909864081</v>
+        <v>247.8834350433513</v>
       </c>
       <c r="H67" t="n">
-        <v>257.1428571428572</v>
+        <v>305.8823529411765</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2593,39 +2593,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>419.37</v>
+        <v>585.02</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>324.506529000911</v>
+        <v>132.5013909864081</v>
       </c>
       <c r="H68" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2634,21 +2634,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.98</v>
+        <v>419.37</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>324.506529000911</v>
       </c>
       <c r="H69" t="n">
-        <v>100</v>
+        <v>338.4615384615385</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2666,21 +2666,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.97</v>
+        <v>19.98</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2689,30 +2689,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1763.47</v>
+        <v>29.97</v>
       </c>
       <c r="F71" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>307.7387283236994</v>
+        <v>200</v>
       </c>
       <c r="H71" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2726,25 +2726,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>322.05</v>
+        <v>1763.47</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G72" t="n">
-        <v>386.6273798730734</v>
+        <v>307.7387283236994</v>
       </c>
       <c r="H72" t="n">
-        <v>250</v>
+        <v>353.3333333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2753,30 +2753,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3461.89</v>
+        <v>322.05</v>
       </c>
       <c r="F73" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G73" t="n">
-        <v>344.5159219311762</v>
+        <v>386.6273798730734</v>
       </c>
       <c r="H73" t="n">
-        <v>213.6363636363636</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2790,25 +2790,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>643.09</v>
+        <v>60.5</v>
       </c>
       <c r="F74" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>51.24056348627737</v>
+        <v>1152.587991718427</v>
       </c>
       <c r="H74" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2817,30 +2817,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1347.4</v>
+        <v>3461.89</v>
       </c>
       <c r="F75" t="n">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G75" t="n">
-        <v>32.50855591833523</v>
+        <v>344.5159219311762</v>
       </c>
       <c r="H75" t="n">
-        <v>146.1538461538462</v>
+        <v>306.9767441860465</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2849,30 +2849,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5173.95</v>
+        <v>2171.31</v>
       </c>
       <c r="F76" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="G76" t="n">
-        <v>161.5615995146858</v>
+        <v>585.6912777111097</v>
       </c>
       <c r="H76" t="n">
-        <v>105.7142857142857</v>
+        <v>141.1764705882353</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2881,30 +2881,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4587.58</v>
+        <v>643.09</v>
       </c>
       <c r="F77" t="n">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="G77" t="n">
-        <v>89.80628718483396</v>
+        <v>51.24056348627737</v>
       </c>
       <c r="H77" t="n">
-        <v>109.8591549295775</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2918,98 +2918,98 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9937.66</v>
+        <v>5173.95</v>
       </c>
       <c r="F78" t="n">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="G78" t="n">
-        <v>150.0323307041049</v>
+        <v>161.5615995146858</v>
       </c>
       <c r="H78" t="n">
-        <v>123.5849056603774</v>
+        <v>135.5072463768116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>97.95</v>
+        <v>4587.58</v>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="G79" t="n">
-        <v>226.8268268268268</v>
+        <v>89.80628718483396</v>
       </c>
       <c r="H79" t="n">
-        <v>200</v>
+        <v>104.8275862068965</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.96</v>
+        <v>9937.66</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>581</v>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>150.0323307041049</v>
       </c>
       <c r="H80" t="n">
-        <v>100</v>
+        <v>164.0909090909091</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3018,21 +3018,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>10027.37</v>
+        <v>65.78999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>33358.02469135803</v>
+        <v>558.5585585585585</v>
       </c>
       <c r="H81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3041,30 +3041,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1672.01</v>
+        <v>97.95</v>
       </c>
       <c r="F82" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>75.83632176171797</v>
+        <v>226.8268268268268</v>
       </c>
       <c r="H82" t="n">
-        <v>100</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3082,48 +3082,208 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2237.02</v>
+        <v>39.96</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>604.1518461393182</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>733.3333333333334</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2025.98</v>
+      </c>
+      <c r="F84" t="n">
+        <v>203</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1222.354937667254</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2155.555555555556</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10027.37</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G85" t="n">
+        <v>33358.02469135803</v>
+      </c>
+      <c r="H85" t="n">
+        <v>33366.66666666667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2237.02</v>
+      </c>
+      <c r="F86" t="n">
+        <v>226</v>
+      </c>
+      <c r="G86" t="n">
+        <v>604.1518461393182</v>
+      </c>
+      <c r="H86" t="n">
+        <v>629.0322580645161</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>265.86</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16</v>
+      </c>
+      <c r="G87" t="n">
+        <v>220.854453294714</v>
+      </c>
+      <c r="H87" t="n">
+        <v>128.5714285714286</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>423.98</v>
+      </c>
+      <c r="F88" t="n">
+        <v>26</v>
+      </c>
+      <c r="G88" t="n">
+        <v>200.609756097561</v>
+      </c>
+      <c r="H88" t="n">
+        <v>116.6666666666667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>December</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>35.97</v>
       </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
         <v>350.1877346683353</v>
       </c>
-      <c r="H84" t="n">
-        <v>100</v>
+      <c r="H89" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
